--- a/Stocks/BANKBARODA.xlsx
+++ b/Stocks/BANKBARODA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>188.76666666666665</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>163.87735923190138</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>161.85107516622861</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>47.952691153045954</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>0.19999999999998863</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>2.5</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>7.999999999999545E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>164.34110546237639</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-1.0066894294891995</v>
       </c>
       <c r="Y67">
         <v>-1.512718688794195</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="D83">
+        <v>145.9</v>
+      </c>
+      <c r="E83">
+        <v>143.05000000000001</v>
+      </c>
+      <c r="F83">
+        <v>144</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>144.31666666666669</v>
+      </c>
+      <c r="H83">
+        <v>143.22183625324351</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>146.93513050165765</v>
+      </c>
+      <c r="K83">
+        <v>142.21670652376667</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>46.133115024824193</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>0.94999999999998863</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>2.8499999999999943</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.33333333333332998</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>146.11934703337971</v>
+      </c>
+      <c r="W83">
+        <v>151.70716766544419</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-5.5878206320644779</v>
+      </c>
+      <c r="Y83">
+        <v>-5.0888742779375846</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>141.94999999999999</v>
+      </c>
+      <c r="D84">
+        <v>143.5</v>
+      </c>
+      <c r="E84">
+        <v>139.6</v>
+      </c>
+      <c r="F84">
+        <v>139.94999999999999</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>141.01666666666668</v>
+      </c>
+      <c r="H84">
+        <v>142.11925145995508</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>146.17176816795595</v>
+      </c>
+      <c r="K84">
+        <v>141.63521618515185</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>31.797759326841184</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>8.9743589743588162E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>145.17021672055205</v>
+      </c>
+      <c r="W84">
+        <v>150.83626635689276</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-5.6660496363407162</v>
+      </c>
+      <c r="Y84">
+        <v>-5.2043093496182111</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>141.05000000000001</v>
+      </c>
+      <c r="D85">
+        <v>142.1</v>
+      </c>
+      <c r="E85">
+        <v>139.05000000000001</v>
+      </c>
+      <c r="F85">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>140.31666666666666</v>
+      </c>
+      <c r="H85">
+        <v>141.21795906331087</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>145.26693079729907</v>
+      </c>
+      <c r="K85">
+        <v>141.06072369956254</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N85">
+        <v>31.346802270984064</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>3.0499999999999829</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.24590163934426368</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>144.34402953277481</v>
+      </c>
+      <c r="W85">
+        <v>150.01876514527109</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-5.6747356124962778</v>
+      </c>
+      <c r="Y85">
+        <v>-5.2983946021938246</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>140.25</v>
+      </c>
+      <c r="D86">
+        <v>140.4</v>
+      </c>
+      <c r="E86">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="F86">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>138.63333333333335</v>
+      </c>
+      <c r="H86">
+        <v>139.92564619832211</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>144.1853906201215</v>
+      </c>
+      <c r="K86">
+        <v>140.20278509965976</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>26.62656504563844</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>3.2000000000000171</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.34375000000000527</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>143.41417883542485</v>
+      </c>
+      <c r="W86">
+        <v>149.1507084678436</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-5.7365296324187511</v>
+      </c>
+      <c r="Y86">
+        <v>-5.3860216082388099</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>139</v>
+      </c>
+      <c r="D87">
+        <v>140.85</v>
+      </c>
+      <c r="E87">
+        <v>137.65</v>
+      </c>
+      <c r="F87">
+        <v>138.35</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>138.95000000000002</v>
+      </c>
+      <c r="H87">
+        <v>139.43782309916105</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>143.44419270453895</v>
+      </c>
+      <c r="K87">
+        <v>139.6354995219576</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N87">
+        <v>27.084055299245868</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>0.69999999999998863</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.21874999999999722</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>142.63507439920565</v>
+      </c>
+      <c r="W87">
+        <v>148.35065598874408</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-5.7155815895384308</v>
+      </c>
+      <c r="Y87">
+        <v>-5.4519336044987341</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>138.9</v>
+      </c>
+      <c r="D88">
+        <v>139.25</v>
+      </c>
+      <c r="E88">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="F88">
+        <v>136.9</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>137.31666666666669</v>
+      </c>
+      <c r="H88">
+        <v>138.37724488291389</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>142.51214988130806</v>
+      </c>
+      <c r="K88">
+        <v>138.7831662948559</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>22.090999944380528</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>3.4499999999999886</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.31884057971014435</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>141.75275526086631</v>
+      </c>
+      <c r="W88">
+        <v>147.50245924883711</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-5.7497039879708041</v>
+      </c>
+      <c r="Y88">
+        <v>-5.5114876811931479</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="D89">
+        <v>139</v>
+      </c>
+      <c r="E89">
+        <v>136</v>
+      </c>
+      <c r="F89">
+        <v>138.6</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>137.86666666666667</v>
+      </c>
+      <c r="H89">
+        <v>138.12195577479028</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>141.73167212990626</v>
+      </c>
+      <c r="K89">
+        <v>138.16468489599905</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>38.662736409542838</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.86666666666666481</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>141.26771598996379</v>
+      </c>
+      <c r="W89">
+        <v>146.84301782299733</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-5.5753018330335351</v>
+      </c>
+      <c r="Y89">
+        <v>-5.5242505115612257</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>137</v>
+      </c>
+      <c r="D90">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="E90">
+        <v>136.4</v>
+      </c>
+      <c r="F90">
+        <v>138.1</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>137.93333333333337</v>
+      </c>
+      <c r="H90">
+        <v>138.02764455406182</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>141.19130054548265</v>
+      </c>
+      <c r="K90">
+        <v>137.77253269688813</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>35.858566002111452</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.58620689655171909</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>140.78037506843089</v>
+      </c>
+      <c r="W90">
+        <v>146.19538687314568</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-5.4150118047147942</v>
+      </c>
+      <c r="Y90">
+        <v>-5.5024027701919396</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="D91">
+        <v>140.94999999999999</v>
+      </c>
+      <c r="E91">
+        <v>138.55000000000001</v>
+      </c>
+      <c r="F91">
+        <v>139.6</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>139.70000000000002</v>
+      </c>
+      <c r="H91">
+        <v>138.86382227703092</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>141.13767820204205</v>
+      </c>
+      <c r="K91">
+        <v>137.94530320869077</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>49.573703207284481</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.0499999999999829</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>2.3999999999999773</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.43749999999999706</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>140.5987789040569</v>
+      </c>
+      <c r="W91">
+        <v>145.70683969735711</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-5.1080607933002113</v>
+      </c>
+      <c r="Y91">
+        <v>-5.4235343748135936</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>140.4</v>
+      </c>
+      <c r="D92">
+        <v>140.4</v>
+      </c>
+      <c r="E92">
+        <v>136.5</v>
+      </c>
+      <c r="F92">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>137.86666666666665</v>
+      </c>
+      <c r="H92">
+        <v>138.36524447184877</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>140.97374971269937</v>
+      </c>
+      <c r="K92">
+        <v>137.62412471787061</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>32.68421981001449</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>5.128205128204829E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>139.99896676497121</v>
+      </c>
+      <c r="W92">
+        <v>145.03966638644178</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-5.0406996214705657</v>
+      </c>
+      <c r="Y92">
+        <v>-5.3469674241449878</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="D93">
+        <v>139.6</v>
+      </c>
+      <c r="E93">
+        <v>137.15</v>
+      </c>
+      <c r="F93">
+        <v>137.4</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>138.04999999999998</v>
+      </c>
+      <c r="H93">
+        <v>138.20762223592436</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>140.66847199876617</v>
+      </c>
+      <c r="K93">
+        <v>137.51876366945493</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>38.958976177556295</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>2.4499999999999886</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.10204081632653109</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V93">
+        <v>139.5991257242064</v>
+      </c>
+      <c r="W93">
+        <v>144.47376517263129</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-4.8746394484248867</v>
+      </c>
+      <c r="Y93">
+        <v>-5.252501829000968</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>138.25</v>
+      </c>
+      <c r="D94">
+        <v>142.5</v>
+      </c>
+      <c r="E94">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="F94">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>140.63333333333333</v>
+      </c>
+      <c r="H94">
+        <v>139.42047778462884</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>141.07547822126259</v>
+      </c>
+      <c r="K94">
+        <v>137.44792729846495</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>66.068998426776602</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>5.3000000000000114</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.94339622641509235</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>139.99926022817465</v>
+      </c>
+      <c r="W94">
+        <v>144.30533812280675</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-4.3060778946320966</v>
+      </c>
+      <c r="Y94">
+        <v>-5.063217042127194</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="D95">
+        <v>145.9</v>
+      </c>
+      <c r="E95">
+        <v>141.6</v>
+      </c>
+      <c r="F95">
+        <v>143.94999999999999</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>143.81666666666666</v>
+      </c>
+      <c r="H95">
+        <v>141.61857222564777</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>142.14759417209314</v>
+      </c>
+      <c r="K95">
+        <v>138.37061012102828</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>71.780652063937865</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>4.3000000000000114</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.54651162790697394</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>140.60706634691701</v>
+      </c>
+      <c r="W95">
+        <v>144.27901678037662</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-3.6719504334596138</v>
+      </c>
+      <c r="Y95">
+        <v>-4.7849637203936783</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="D96">
+        <v>147</v>
+      </c>
+      <c r="E96">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="F96">
+        <v>145.4</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>145.4</v>
+      </c>
+      <c r="H96">
+        <v>143.50928611282387</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>143.22590657829465</v>
+      </c>
+      <c r="K96">
+        <v>139.57714120524423</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>75.970102599312114</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>141.34444075508361</v>
+      </c>
+      <c r="W96">
+        <v>144.36205257442279</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-3.0176118193391801</v>
+      </c>
+      <c r="Y96">
+        <v>-4.4314933401827785</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="D97">
+        <v>146</v>
+      </c>
+      <c r="E97">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="F97">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>145</v>
+      </c>
+      <c r="H97">
+        <v>144.25464305641194</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>143.84237178311807</v>
+      </c>
+      <c r="K97">
+        <v>140.49333204852329</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>75.010101224257639</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.6956521739130499</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>141.95298833122459</v>
+      </c>
+      <c r="W97">
+        <v>144.43153016150259</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-2.4785418302780045</v>
+      </c>
+      <c r="Y97">
+        <v>-4.0409030382018241</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>146</v>
+      </c>
+      <c r="D98">
+        <v>149</v>
+      </c>
+      <c r="E98">
+        <v>144.75</v>
+      </c>
+      <c r="F98">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>146.31666666666666</v>
+      </c>
+      <c r="H98">
+        <v>145.28565486153929</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>144.98851138686962</v>
+      </c>
+      <c r="K98">
+        <v>141.43925825996254</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>73.843687738190766</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>4.25</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.10588235294117379</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>142.45252858795928</v>
+      </c>
+      <c r="W98">
+        <v>144.48845385324313</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-2.0359252652838506</v>
+      </c>
+      <c r="Y98">
+        <v>-3.6399074836182295</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="D99">
+        <v>146</v>
+      </c>
+      <c r="E99">
+        <v>143.15</v>
+      </c>
+      <c r="F99">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>144.48333333333332</v>
+      </c>
+      <c r="H99">
+        <v>144.88449409743629</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>145.21328663423193</v>
+      </c>
+      <c r="K99">
+        <v>141.81942309108197</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>62.848983284559445</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.1500000000000057</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>2.8499999999999943</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.40350877192982737</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>142.73675495904246</v>
+      </c>
+      <c r="W99">
+        <v>144.47449430855846</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-1.7377393495160049</v>
+      </c>
+      <c r="Y99">
+        <v>-3.2594738567977846</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="D100">
+        <v>151</v>
+      </c>
+      <c r="E100">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="F100">
+        <v>148.1</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>147.63333333333333</v>
+      </c>
+      <c r="H100">
+        <v>146.25891371538481</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>146.49922293773594</v>
+      </c>
+      <c r="K100">
+        <v>142.25955129306377</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>79.196624357899495</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>4.2999999999999829</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.59722222222222077</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>143.56186958072823</v>
+      </c>
+      <c r="W100">
+        <v>144.74305028570228</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-1.1811807049740537</v>
+      </c>
+      <c r="Y100">
+        <v>-2.8438152264330383</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>148.9</v>
+      </c>
+      <c r="D101">
+        <v>148.9</v>
+      </c>
+      <c r="E101">
+        <v>144.65</v>
+      </c>
+      <c r="F101">
+        <v>145.4</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>146.31666666666669</v>
+      </c>
+      <c r="H101">
+        <v>146.28779019102575</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>147.03272895157241</v>
+      </c>
+      <c r="K101">
+        <v>142.79076211682738</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>56.942478239774573</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>4.25</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>143.84465887600081</v>
+      </c>
+      <c r="W101">
+        <v>144.7917132275021</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-0.94705435150129347</v>
+      </c>
+      <c r="Y101">
+        <v>-2.4644630514466894</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>145</v>
+      </c>
+      <c r="D102">
+        <v>145</v>
+      </c>
+      <c r="E102">
+        <v>141.5</v>
+      </c>
+      <c r="F102">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>142.93333333333334</v>
+      </c>
+      <c r="H102">
+        <v>144.61056176217954</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>146.58101140677854</v>
+      </c>
+      <c r="K102">
+        <v>142.50392609086575</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>40.577981687468437</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>3.5</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.22857142857143181</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>143.60701904892377</v>
+      </c>
+      <c r="W102">
+        <v>144.60714187731676</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-1.000122828392989</v>
+      </c>
+      <c r="Y102">
+        <v>-2.1715950068359495</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>141.85</v>
+      </c>
+      <c r="D103">
+        <v>143.25</v>
+      </c>
+      <c r="E103">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="F103">
+        <v>142.65</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>141.36666666666667</v>
+      </c>
+      <c r="H103">
+        <v>142.98861421442311</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>145.84078664971665</v>
+      </c>
+      <c r="K103">
+        <v>141.54749807067336</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>42.894114802044726</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>4.4500000000000171</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>5.0500000000000114</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.88118811881188253</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>143.45978534908934</v>
+      </c>
+      <c r="W103">
+        <v>144.46216840492292</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-1.002383055833576</v>
+      </c>
+      <c r="Y103">
+        <v>-1.9377526166354748</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>142.6</v>
+      </c>
+      <c r="D104">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="E104">
+        <v>140.94999999999999</v>
+      </c>
+      <c r="F104">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>142.61666666666665</v>
+      </c>
+      <c r="H104">
+        <v>142.80264044054488</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>145.47616739422406</v>
+      </c>
+      <c r="K104">
+        <v>141.41472072163484</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>43.288841597145527</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>1.75</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>3.25</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>143.3428952953833</v>
+      </c>
+      <c r="W104">
+        <v>144.33163741196566</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-0.98874211658235822</v>
+      </c>
+      <c r="Y104">
+        <v>-1.7479505166248515</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>143.9</v>
+      </c>
+      <c r="D105">
+        <v>143.9</v>
+      </c>
+      <c r="E105">
+        <v>137.85</v>
+      </c>
+      <c r="F105">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>140.01666666666668</v>
+      </c>
+      <c r="H105">
+        <v>141.40965355360578</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>145.12590797328539</v>
+      </c>
+      <c r="K105">
+        <v>140.62256056127154</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>24.591167794483461</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>0.45000000000001705</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>6.0500000000000114</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>7.4380165289258879E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>142.56706524993973</v>
+      </c>
+      <c r="W105">
+        <v>143.88484945552375</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-1.3177842055840188</v>
+      </c>
+      <c r="Y105">
+        <v>-1.6619172544166849</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>138.5</v>
+      </c>
+      <c r="D106">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="E106">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="F106">
+        <v>138.85</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>138.78333333333333</v>
+      </c>
+      <c r="H106">
+        <v>140.09649344346957</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>144.05348397922197</v>
+      </c>
+      <c r="K106">
+        <v>139.86199154765563</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>29.358665940705485</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>1.6500000000000057</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>3.1000000000000227</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.53225806451612701</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>141.99520905764132</v>
+      </c>
+      <c r="W106">
+        <v>143.51189764400348</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-1.5166885863621644</v>
+      </c>
+      <c r="Y106">
+        <v>-1.6328715208057809</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>139.1</v>
+      </c>
+      <c r="D107">
+        <v>140.75</v>
+      </c>
+      <c r="E107">
+        <v>137.1</v>
+      </c>
+      <c r="F107">
+        <v>137.94999999999999</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>138.6</v>
+      </c>
+      <c r="H107">
+        <v>139.34824672173477</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>143.31937642828376</v>
+      </c>
+      <c r="K107">
+        <v>139.2482156481766</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>25.99681609275941</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>3.6500000000000057</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.2328767123287652</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>141.37286920261957</v>
+      </c>
+      <c r="W107">
+        <v>143.09990522592915</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-1.7270360233095801</v>
+      </c>
+      <c r="Y107">
+        <v>-1.6517044213065408</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
